--- a/Stocks/SYMPHONY.xlsx
+++ b/Stocks/SYMPHONY.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>1452.45</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H104">_xll.TA_EMA(G2:G104,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J104">_xll.TA_EMA(D2:D104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K104">_xll.TA_EMA(E2:E104,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N104">_xll.TA_RSI(F2:F104,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V104">_xll.TA_EMA(F2:F104,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W104">_xll.TA_EMA(F2:F104,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y104">_xll.TA_EMA(X2:X104,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>1415.9400143311732</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I104" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>1392.2925163662778</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L104" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M104" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>No Trend</v>
       </c>
       <c r="N67">
         <v>44.135372985813277</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O104" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>No Momentum</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P104" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>No Trend + Momentum</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q104" si="25">F67-E67</f>
         <v>10.599999999999909</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R104" si="26">D67-E67</f>
         <v>35.399999999999864</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S104" si="27">Q67/R67</f>
         <v>0.29943502824858614</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T104" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>No Indication</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U104" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>No T+M+I</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>1382.9209064457557</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X104" si="30">V67-W67</f>
         <v>22.23818501201572</v>
       </c>
       <c r="Y67">
         <v>17.392569650902061</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z104" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>UP</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA104" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>No TMIM</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB104" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC104" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD104" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE104" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF104" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG104" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,2689 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>1257</v>
+      </c>
+      <c r="D83">
+        <v>1291.95</v>
+      </c>
+      <c r="E83">
+        <v>1250.05</v>
+      </c>
+      <c r="F83">
+        <v>1272.5</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>1271.5</v>
+      </c>
+      <c r="H83">
+        <v>1261.7790037538807</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>1284.0328519538602</v>
+      </c>
+      <c r="K83">
+        <v>1233.9039259906381</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N83">
+        <v>63.155227657469702</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>22.450000000000045</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>41.900000000000091</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.53579952267303099</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>1263.7988078819021</v>
+      </c>
+      <c r="W83">
+        <v>1296.8343181549737</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-33.035510273071623</v>
+      </c>
+      <c r="Y83">
+        <v>-31.236139424006264</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>1262.05</v>
+      </c>
+      <c r="D84">
+        <v>1274.9000000000001</v>
+      </c>
+      <c r="E84">
+        <v>1250</v>
+      </c>
+      <c r="F84">
+        <v>1251</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>1258.6333333333334</v>
+      </c>
+      <c r="H84">
+        <v>1260.206168543607</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>1282.003329297447</v>
+      </c>
+      <c r="K84">
+        <v>1237.4808313260519</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>47.103483391101022</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>24.900000000000091</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>4.0160642570280979E-2</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>1261.8297605154557</v>
+      </c>
+      <c r="W84">
+        <v>1293.4391834768276</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-31.60942296137182</v>
+      </c>
+      <c r="Y84">
+        <v>-31.310796131479375</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>1258.3</v>
+      </c>
+      <c r="D85">
+        <v>1269.8499999999999</v>
+      </c>
+      <c r="E85">
+        <v>1240</v>
+      </c>
+      <c r="F85">
+        <v>1242</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>1250.6166666666666</v>
+      </c>
+      <c r="H85">
+        <v>1255.4114176051366</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>1279.3025894535699</v>
+      </c>
+      <c r="K85">
+        <v>1238.0406465869291</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>41.574401801968655</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>29.849999999999909</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>6.7001675041876249E-2</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>1258.7790281284626</v>
+      </c>
+      <c r="W85">
+        <v>1289.6288735896551</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-30.849845461192444</v>
+      </c>
+      <c r="Y85">
+        <v>-31.218605997421989</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>1247</v>
+      </c>
+      <c r="D86">
+        <v>1313</v>
+      </c>
+      <c r="E86">
+        <v>1236.05</v>
+      </c>
+      <c r="F86">
+        <v>1300</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>1283.0166666666667</v>
+      </c>
+      <c r="H86">
+        <v>1269.2140421359018</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J86">
+        <v>1286.7909029083321</v>
+      </c>
+      <c r="K86">
+        <v>1237.5982806787226</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N86">
+        <v>69.969992623462232</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>63.950000000000045</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>76.950000000000045</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.83105912930474346</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V86">
+        <v>1265.1207161086991</v>
+      </c>
+      <c r="W86">
+        <v>1290.3971051756066</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-25.276389066907541</v>
+      </c>
+      <c r="Y86">
+        <v>-30.030162611319099</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>1299.9000000000001</v>
+      </c>
+      <c r="D87">
+        <v>1324.7</v>
+      </c>
+      <c r="E87">
+        <v>1271.0999999999999</v>
+      </c>
+      <c r="F87">
+        <v>1288.5999999999999</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>1294.8</v>
+      </c>
+      <c r="H87">
+        <v>1282.007021067951</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>1295.2151467064805</v>
+      </c>
+      <c r="K87">
+        <v>1245.043107194562</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>62.506228473081968</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>17.5</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>53.600000000000136</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.32649253731343203</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>1268.7329136304377</v>
+      </c>
+      <c r="W87">
+        <v>1290.2639862737099</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-21.531072643272182</v>
+      </c>
+      <c r="Y87">
+        <v>-28.330344617709716</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>1305</v>
+      </c>
+      <c r="D88">
+        <v>1305</v>
+      </c>
+      <c r="E88">
+        <v>1267.1500000000001</v>
+      </c>
+      <c r="F88">
+        <v>1277.4000000000001</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>1283.1833333333334</v>
+      </c>
+      <c r="H88">
+        <v>1282.5951772006422</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>1297.3895585494847</v>
+      </c>
+      <c r="K88">
+        <v>1249.955750040215</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>55.266368121507256</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>10.25</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>37.849999999999909</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.2708058124174379</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>1270.0663115334473</v>
+      </c>
+      <c r="W88">
+        <v>1289.3110984015832</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-19.244786868135861</v>
+      </c>
+      <c r="Y88">
+        <v>-26.513233067794946</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>1277.95</v>
+      </c>
+      <c r="D89">
+        <v>1305</v>
+      </c>
+      <c r="E89">
+        <v>1250</v>
+      </c>
+      <c r="F89">
+        <v>1270</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>1275</v>
+      </c>
+      <c r="H89">
+        <v>1278.797588600321</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J89">
+        <v>1299.0807677607104</v>
+      </c>
+      <c r="K89">
+        <v>1249.9655833646116</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>50.44116385681162</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>20</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>55</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.36363636363636365</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>1270.0561097590708</v>
+      </c>
+      <c r="W89">
+        <v>1287.8806466681326</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-17.824536909061862</v>
+      </c>
+      <c r="Y89">
+        <v>-24.77549383604833</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>1293.5999999999999</v>
+      </c>
+      <c r="D90">
+        <v>1293.5999999999999</v>
+      </c>
+      <c r="E90">
+        <v>1265</v>
+      </c>
+      <c r="F90">
+        <v>1270</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>1276.2</v>
+      </c>
+      <c r="H90">
+        <v>1277.4987943001606</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>1297.8628193694415</v>
+      </c>
+      <c r="K90">
+        <v>1253.3065648391423</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>50.44116385681162</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>5</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>28.599999999999909</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.17482517482517537</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>1270.0474774884444</v>
+      </c>
+      <c r="W90">
+        <v>1286.556154322345</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-16.508676833900608</v>
+      </c>
+      <c r="Y90">
+        <v>-23.122130435618786</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>1270.05</v>
+      </c>
+      <c r="D91">
+        <v>1322</v>
+      </c>
+      <c r="E91">
+        <v>1270.05</v>
+      </c>
+      <c r="F91">
+        <v>1315</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>1302.3500000000001</v>
+      </c>
+      <c r="H91">
+        <v>1289.9243971500805</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J91">
+        <v>1303.2266372873435</v>
+      </c>
+      <c r="K91">
+        <v>1257.0273282082219</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N91">
+        <v>72.912376288993912</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>44.950000000000045</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>51.950000000000045</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.86525505293551508</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V91">
+        <v>1276.9632501825299</v>
+      </c>
+      <c r="W91">
+        <v>1288.6631058540231</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-11.699855671493196</v>
+      </c>
+      <c r="Y91">
+        <v>-20.837675482793667</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>1313</v>
+      </c>
+      <c r="D92">
+        <v>1348</v>
+      </c>
+      <c r="E92">
+        <v>1305</v>
+      </c>
+      <c r="F92">
+        <v>1335</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>1329.3333333333333</v>
+      </c>
+      <c r="H92">
+        <v>1309.628865241707</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J92">
+        <v>1313.1762734457116</v>
+      </c>
+      <c r="K92">
+        <v>1267.6879219397281</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N92">
+        <v>78.362837049211592</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>30</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>43</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>0.69767441860465118</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V92">
+        <v>1285.8919809236791</v>
+      </c>
+      <c r="W92">
+        <v>1292.0954683833547</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-6.2034874596756708</v>
+      </c>
+      <c r="Y92">
+        <v>-17.910837878170067</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>1342</v>
+      </c>
+      <c r="D93">
+        <v>1424</v>
+      </c>
+      <c r="E93">
+        <v>1340</v>
+      </c>
+      <c r="F93">
+        <v>1424</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>1396</v>
+      </c>
+      <c r="H93">
+        <v>1352.8144326208535</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J93">
+        <v>1337.8037682355534</v>
+      </c>
+      <c r="K93">
+        <v>1283.7572726197884</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N93">
+        <v>89.790244037440075</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>84</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>84</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>1</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V93">
+        <v>1307.1393684738823</v>
+      </c>
+      <c r="W93">
+        <v>1301.8661744290321</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>5.2731940448502428</v>
+      </c>
+      <c r="Y93">
+        <v>-13.274031493566005</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>UP</v>
+      </c>
+      <c r="AD93">
+        <f t="shared" si="35"/>
+        <v>1349.6000000000001</v>
+      </c>
+      <c r="AE93">
+        <f t="shared" si="36"/>
+        <v>1372.1000000000001</v>
+      </c>
+      <c r="AF93">
+        <f t="shared" si="37"/>
+        <v>1382</v>
+      </c>
+      <c r="AG93">
+        <f t="shared" si="38"/>
+        <v>1391.9</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>1425</v>
+      </c>
+      <c r="D94">
+        <v>1440</v>
+      </c>
+      <c r="E94">
+        <v>1365.7</v>
+      </c>
+      <c r="F94">
+        <v>1410</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>1405.2333333333333</v>
+      </c>
+      <c r="H94">
+        <v>1379.0238829770933</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>1360.5140419609861</v>
+      </c>
+      <c r="K94">
+        <v>1301.9667675931687</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N94">
+        <v>81.342990028213151</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>44.299999999999955</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>74.299999999999955</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.59623149394347219</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>1322.9640810163619</v>
+      </c>
+      <c r="W94">
+        <v>1309.876087434289</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>13.087993582072841</v>
+      </c>
+      <c r="Y94">
+        <v>-8.0016264784382347</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>1430</v>
+      </c>
+      <c r="D95">
+        <v>1430</v>
+      </c>
+      <c r="E95">
+        <v>1386.5</v>
+      </c>
+      <c r="F95">
+        <v>1388</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>1401.5</v>
+      </c>
+      <c r="H95">
+        <v>1390.2619414885467</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>1375.9553659696558</v>
+      </c>
+      <c r="K95">
+        <v>1320.7519303502422</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>68.655729797682824</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>1.5</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>43.5</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>1332.9696070138448</v>
+      </c>
+      <c r="W95">
+        <v>1315.6630439206381</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>17.306563093206705</v>
+      </c>
+      <c r="Y95">
+        <v>-2.9399885641092469</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>1400</v>
+      </c>
+      <c r="D96">
+        <v>1415</v>
+      </c>
+      <c r="E96">
+        <v>1375</v>
+      </c>
+      <c r="F96">
+        <v>1376</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>1388.6666666666667</v>
+      </c>
+      <c r="H96">
+        <v>1389.4643040776068</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J96">
+        <v>1384.6319513097324</v>
+      </c>
+      <c r="K96">
+        <v>1332.8070569390773</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>62.056358258461472</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>1</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>40</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>1339.5896674732533</v>
+      </c>
+      <c r="W96">
+        <v>1320.1324480746648</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>19.45721939858845</v>
+      </c>
+      <c r="Y96">
+        <v>1.5394530284302927</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>1395</v>
+      </c>
+      <c r="D97">
+        <v>1422</v>
+      </c>
+      <c r="E97">
+        <v>1375.05</v>
+      </c>
+      <c r="F97">
+        <v>1410</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>1402.3500000000001</v>
+      </c>
+      <c r="H97">
+        <v>1395.9071520388034</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>1392.9359621297917</v>
+      </c>
+      <c r="K97">
+        <v>1342.1943776192822</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N97">
+        <v>71.693026597793462</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>34.950000000000045</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>46.950000000000045</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.74440894568690119</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>1350.422026323522</v>
+      </c>
+      <c r="W97">
+        <v>1326.7893037728377</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>23.632722550684321</v>
+      </c>
+      <c r="Y97">
+        <v>5.9581069328810985</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>1415.7</v>
+      </c>
+      <c r="D98">
+        <v>1430</v>
+      </c>
+      <c r="E98">
+        <v>1389.3</v>
+      </c>
+      <c r="F98">
+        <v>1397.05</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>1405.45</v>
+      </c>
+      <c r="H98">
+        <v>1400.6785760194016</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J98">
+        <v>1401.172414989838</v>
+      </c>
+      <c r="K98">
+        <v>1352.6622937038862</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N98">
+        <v>63.959241970412087</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>7.75</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>40.700000000000045</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.19041769041769022</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V98">
+        <v>1357.5955607352878</v>
+      </c>
+      <c r="W98">
+        <v>1331.9937997896645</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>25.601760945623255</v>
+      </c>
+      <c r="Y98">
+        <v>9.8868377354295305</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>1403.9</v>
+      </c>
+      <c r="D99">
+        <v>1422</v>
+      </c>
+      <c r="E99">
+        <v>1383.9</v>
+      </c>
+      <c r="F99">
+        <v>1415.05</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>1406.9833333333333</v>
+      </c>
+      <c r="H99">
+        <v>1403.8309546763676</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>1405.8007672143185</v>
+      </c>
+      <c r="K99">
+        <v>1359.6040062141337</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>69.647975293197476</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>31.149999999999864</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>38.099999999999909</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.81758530183726874</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V99">
+        <v>1366.4347052375513</v>
+      </c>
+      <c r="W99">
+        <v>1338.1461109163561</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>28.288594321195205</v>
+      </c>
+      <c r="Y99">
+        <v>13.567189052582666</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>1430</v>
+      </c>
+      <c r="D100">
+        <v>1471</v>
+      </c>
+      <c r="E100">
+        <v>1404.5</v>
+      </c>
+      <c r="F100">
+        <v>1407.05</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>1427.5166666666667</v>
+      </c>
+      <c r="H100">
+        <v>1415.673810671517</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>1420.2894856111366</v>
+      </c>
+      <c r="K100">
+        <v>1369.5808937221041</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>64.032938745212903</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>2.5499999999999545</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>66.5</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>3.8345864661653455E-2</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>1372.6832121240818</v>
+      </c>
+      <c r="W100">
+        <v>1343.2501027003298</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>29.433109423752057</v>
+      </c>
+      <c r="Y100">
+        <v>16.740373126816543</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>1420.1</v>
+      </c>
+      <c r="D101">
+        <v>1428.5</v>
+      </c>
+      <c r="E101">
+        <v>1400</v>
+      </c>
+      <c r="F101">
+        <v>1417</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>1415.1666666666667</v>
+      </c>
+      <c r="H101">
+        <v>1415.4202386690918</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J101">
+        <v>1422.1140443642173</v>
+      </c>
+      <c r="K101">
+        <v>1376.3406951171921</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>68.038917801869289</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>17</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>28.5</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.59649122807017541</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>1379.5011794896077</v>
+      </c>
+      <c r="W101">
+        <v>1348.713058055861</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>30.78812143374671</v>
+      </c>
+      <c r="Y101">
+        <v>19.549922788202576</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>1412</v>
+      </c>
+      <c r="D102">
+        <v>1414.95</v>
+      </c>
+      <c r="E102">
+        <v>1392</v>
+      </c>
+      <c r="F102">
+        <v>1394</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>1400.3166666666666</v>
+      </c>
+      <c r="H102">
+        <v>1407.8684526678792</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>1420.5220345055025</v>
+      </c>
+      <c r="K102">
+        <v>1379.820540646705</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N102">
+        <v>51.473505945749629</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>2</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>22.950000000000045</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>8.71459694989105E-2</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V102">
+        <v>1381.7317672604372</v>
+      </c>
+      <c r="W102">
+        <v>1352.0676463480195</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>29.664120912417729</v>
+      </c>
+      <c r="Y102">
+        <v>21.572762413045606</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>1419</v>
+      </c>
+      <c r="D103">
+        <v>1419</v>
+      </c>
+      <c r="E103">
+        <v>1327.15</v>
+      </c>
+      <c r="F103">
+        <v>1330</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>1358.7166666666667</v>
+      </c>
+      <c r="H103">
+        <v>1383.2925596672731</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>1420.1838046153907</v>
+      </c>
+      <c r="K103">
+        <v>1368.1159760585483</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>27.870958001082403</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>2.8499999999999091</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>91.849999999999909</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>3.1028851388131867E-2</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V103">
+        <v>1373.7730338357546</v>
+      </c>
+      <c r="W103">
+        <v>1350.4330058777957</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>23.34002795795891</v>
+      </c>
+      <c r="Y103">
+        <v>21.926215522028265</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>1332.2</v>
+      </c>
+      <c r="D104">
+        <v>1367.95</v>
+      </c>
+      <c r="E104">
+        <v>1332.2</v>
+      </c>
+      <c r="F104">
+        <v>1335</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>1345.05</v>
+      </c>
+      <c r="H104">
+        <v>1364.1712798336366</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>1408.5762924786372</v>
+      </c>
+      <c r="K104">
+        <v>1360.1346480455377</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>30.962398396407369</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>2.7999999999999545</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>35.75</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>7.8321678321677052E-2</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V104">
+        <v>1367.8079517071769</v>
+      </c>
+      <c r="W104">
+        <v>1349.2898202572183</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>18.518131449958673</v>
+      </c>
+      <c r="Y104">
+        <v>21.244598707614347</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD104" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE104" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF104" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG104" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B105" s="1"/>
     </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B106" s="1"/>
     </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B107" s="1"/>
     </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
